--- a/outputs/meds.xlsx
+++ b/outputs/meds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbdaniels/GitHub/jclintb2019/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE28D00-1C1B-4D46-8E9D-A566161BCF80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAC4B2C-2630-C24D-930E-11A81151E31E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20480" yWindow="460" windowWidth="20480" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meds" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
   <si>
     <t xml:space="preserve"> China County</t>
   </si>
@@ -108,6 +108,180 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>15 (71%)</t>
+  </si>
+  <si>
+    <t>75 (36%)</t>
+  </si>
+  <si>
+    <t>22 (31%)</t>
+  </si>
+  <si>
+    <t>13 (3%)</t>
+  </si>
+  <si>
+    <t>49 (16%)</t>
+  </si>
+  <si>
+    <t>43 (11%)</t>
+  </si>
+  <si>
+    <t>10 (5%)</t>
+  </si>
+  <si>
+    <t>1 (5%)</t>
+  </si>
+  <si>
+    <t>15 (7%)</t>
+  </si>
+  <si>
+    <t>5 (7%)</t>
+  </si>
+  <si>
+    <t>76 (25%)</t>
+  </si>
+  <si>
+    <t>80 (21%)</t>
+  </si>
+  <si>
+    <t>14 (8%)</t>
+  </si>
+  <si>
+    <t>4 (1%)</t>
+  </si>
+  <si>
+    <t>3 (2%)</t>
+  </si>
+  <si>
+    <t>5 (2%)</t>
+  </si>
+  <si>
+    <t>3 (1%)</t>
+  </si>
+  <si>
+    <t>3 (14%)</t>
+  </si>
+  <si>
+    <t>13 (6%)</t>
+  </si>
+  <si>
+    <t>18 (25%)</t>
+  </si>
+  <si>
+    <t>13 (46%)</t>
+  </si>
+  <si>
+    <t>6 (43%)</t>
+  </si>
+  <si>
+    <t>226 (45%)</t>
+  </si>
+  <si>
+    <t>33 (11%)</t>
+  </si>
+  <si>
+    <t>73 (40%)</t>
+  </si>
+  <si>
+    <t>8 (2%)</t>
+  </si>
+  <si>
+    <t>1 (1%)</t>
+  </si>
+  <si>
+    <t>28 (9%)</t>
+  </si>
+  <si>
+    <t>63 (16%)</t>
+  </si>
+  <si>
+    <t>11 (6%)</t>
+  </si>
+  <si>
+    <t>2 (10%)</t>
+  </si>
+  <si>
+    <t>85 (41%)</t>
+  </si>
+  <si>
+    <t>25 (35%)</t>
+  </si>
+  <si>
+    <t>8 (57%)</t>
+  </si>
+  <si>
+    <t>143 (29%)</t>
+  </si>
+  <si>
+    <t>67 (22%)</t>
+  </si>
+  <si>
+    <t>62 (16%)</t>
+  </si>
+  <si>
+    <t>23 (13%)</t>
+  </si>
+  <si>
+    <t>18 (5%)</t>
+  </si>
+  <si>
+    <t>1 (4%)</t>
+  </si>
+  <si>
+    <t>15 (3%)</t>
+  </si>
+  <si>
+    <t>6 (2%)</t>
+  </si>
+  <si>
+    <t>7 (4%)</t>
+  </si>
+  <si>
+    <t>34 (7%)</t>
+  </si>
+  <si>
+    <t>11 (4%)</t>
+  </si>
+  <si>
+    <t>9 (5%)</t>
+  </si>
+  <si>
+    <t>2 (1%)</t>
+  </si>
+  <si>
+    <t>10 (3%)</t>
+  </si>
+  <si>
+    <t>11 (5%)</t>
+  </si>
+  <si>
+    <t>12 (3%)</t>
+  </si>
+  <si>
+    <t>54 (11%)</t>
+  </si>
+  <si>
+    <t>13 (4%)</t>
+  </si>
+  <si>
+    <t>27 (7%)</t>
+  </si>
+  <si>
+    <t>17 (9%)</t>
+  </si>
+  <si>
+    <t>7 (1%)</t>
+  </si>
+  <si>
+    <t>5 (1%)</t>
+  </si>
+  <si>
+    <t>1 (&lt;1%)</t>
+  </si>
+  <si>
+    <t>2 (&lt;1%)</t>
   </si>
 </sst>
 </file>
@@ -699,28 +873,6 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -874,11 +1026,33 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -894,18 +1068,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D76A5F35-183D-704C-901D-DAEE36714496}" name="Table1" displayName="Table1" ref="A2:J19" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="12" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D76A5F35-183D-704C-901D-DAEE36714496}" name="Table1" displayName="Table1" ref="A2:J19" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{A0B3D086-450C-A342-8499-671C8E94484B}" name="Column1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{C2C3036C-CEE1-6549-837C-F42B46EA6D66}" name=" China County" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{096C4C63-C258-7D4E-8A16-548B23DE8FF6}" name=" China Township" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{010EFBCA-95BA-C641-B020-70AB6DC43B05}" name=" China Village" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{0FFAD3BD-1D11-C244-A978-D6C001E8E74B}" name=" Nairobi Private" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{A44B73DA-AB2C-6A45-A302-E37DD5D75F68}" name=" Nairobi Public" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{A0FB99C9-DA74-1E48-84C0-B1EACE0A9ABE}" name="Mumbai Ayush" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{1C3CD6D2-F63C-3846-B578-DD9CEC951C7A}" name="Mumbai Hospital" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{DF3D806C-058D-1E41-9D73-408EEBC2D25C}" name="Patna Formal" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{D43BEB5B-693F-9F48-B5A3-83400E06BF81}" name="Patna Informal" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A0B3D086-450C-A342-8499-671C8E94484B}" name="Column1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C2C3036C-CEE1-6549-837C-F42B46EA6D66}" name=" China County" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{096C4C63-C258-7D4E-8A16-548B23DE8FF6}" name=" China Township" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{010EFBCA-95BA-C641-B020-70AB6DC43B05}" name=" China Village" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{0FFAD3BD-1D11-C244-A978-D6C001E8E74B}" name=" Nairobi Private" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{A44B73DA-AB2C-6A45-A302-E37DD5D75F68}" name=" Nairobi Public" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{A0FB99C9-DA74-1E48-84C0-B1EACE0A9ABE}" name="Mumbai Ayush" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{1C3CD6D2-F63C-3846-B578-DD9CEC951C7A}" name="Mumbai Hospital" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{DF3D806C-058D-1E41-9D73-408EEBC2D25C}" name="Patna Formal" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{D43BEB5B-693F-9F48-B5A3-83400E06BF81}" name="Patna Informal" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1211,7 +1385,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1268,311 +1442,311 @@
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5">
-        <v>15</v>
-      </c>
-      <c r="C3" s="5">
-        <v>75</v>
-      </c>
-      <c r="D3" s="5">
-        <v>22</v>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5">
-        <v>13</v>
-      </c>
-      <c r="H3" s="5">
-        <v>49</v>
-      </c>
-      <c r="I3" s="5">
-        <v>43</v>
-      </c>
-      <c r="J3" s="5">
-        <v>10</v>
+      <c r="G3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>76</v>
-      </c>
-      <c r="I4" s="2">
-        <v>80</v>
-      </c>
-      <c r="J4" s="2">
-        <v>14</v>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2">
-        <v>13</v>
-      </c>
-      <c r="J5" s="2">
-        <v>3</v>
+      <c r="G5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2">
-        <v>3</v>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2">
-        <v>226</v>
-      </c>
-      <c r="H7" s="2">
-        <v>33</v>
-      </c>
-      <c r="I7" s="2">
-        <v>13</v>
-      </c>
-      <c r="J7" s="2">
-        <v>73</v>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>8</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
+      <c r="H8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>28</v>
-      </c>
-      <c r="I9" s="2">
-        <v>63</v>
-      </c>
-      <c r="J9" s="2">
-        <v>11</v>
+      <c r="C9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>85</v>
-      </c>
-      <c r="D10" s="2">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2">
-        <v>8</v>
-      </c>
-      <c r="G10" s="2">
-        <v>143</v>
-      </c>
-      <c r="H10" s="2">
-        <v>67</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="B10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="2">
-        <v>23</v>
+      <c r="I10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2">
-        <v>4</v>
-      </c>
-      <c r="I11" s="2">
-        <v>18</v>
-      </c>
-      <c r="J11" s="2">
-        <v>3</v>
+      <c r="C11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>15</v>
-      </c>
-      <c r="H12" s="2">
-        <v>6</v>
-      </c>
-      <c r="I12" s="2">
-        <v>18</v>
-      </c>
-      <c r="J12" s="2">
-        <v>7</v>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>34</v>
-      </c>
-      <c r="H13" s="2">
-        <v>11</v>
-      </c>
-      <c r="I13" s="2">
-        <v>8</v>
-      </c>
-      <c r="J13" s="2">
-        <v>9</v>
+      <c r="C13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="2">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2">
-        <v>10</v>
+      <c r="H14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="2">
-        <v>11</v>
-      </c>
-      <c r="G15" s="2">
-        <v>4</v>
-      </c>
-      <c r="H15" s="2">
-        <v>2</v>
-      </c>
-      <c r="I15" s="2">
-        <v>12</v>
-      </c>
-      <c r="J15" s="2">
-        <v>3</v>
+      <c r="C15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>54</v>
-      </c>
-      <c r="H16" s="2">
-        <v>13</v>
-      </c>
-      <c r="I16" s="2">
-        <v>27</v>
-      </c>
-      <c r="J16" s="2">
-        <v>17</v>
+      <c r="C16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="2">
-        <v>7</v>
-      </c>
-      <c r="H17" s="2">
-        <v>3</v>
-      </c>
-      <c r="I17" s="2">
-        <v>6</v>
-      </c>
-      <c r="J17" s="2">
-        <v>7</v>
+      <c r="G17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1580,21 +1754,21 @@
         <v>9</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="4">
-        <v>1</v>
+      <c r="C18" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4">
-        <v>5</v>
-      </c>
-      <c r="J18" s="4">
-        <v>3</v>
+      <c r="H18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -1602,39 +1776,30 @@
         <v>10</v>
       </c>
       <c r="B19" s="10">
-        <f>SUM(B3:B18)</f>
         <v>21</v>
       </c>
       <c r="C19" s="10">
-        <f t="shared" ref="C19:J19" si="0">SUM(C3:C18)</f>
         <v>207</v>
       </c>
       <c r="D19" s="10">
-        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="E19" s="10">
-        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="G19" s="10">
-        <f t="shared" si="0"/>
         <v>499</v>
       </c>
       <c r="H19" s="10">
-        <f t="shared" si="0"/>
         <v>305</v>
       </c>
       <c r="I19" s="10">
-        <f t="shared" si="0"/>
         <v>389</v>
       </c>
       <c r="J19" s="10">
-        <f t="shared" si="0"/>
         <v>184</v>
       </c>
     </row>
